--- a/biology/Histoire de la zoologie et de la botanique/Adam_Lonitzer/Adam_Lonitzer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adam_Lonitzer/Adam_Lonitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Lonitzer (ou Lonicer ou Lonicerus) est un botaniste, un naturaliste et un médecin allemand, né le 10 octobre 1528 à Marbourg et mort le 29 mai 1586 à Francfort-sur-le-Main. Il a contribué à répandre la technique de distillation dans les sciences naturelles et a produit les premières descriptions symptomatiques de l'ergot du seigle.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Johann Lonitzer (1499-1569), humaniste luthérien, docteur en théologie, professeur d'hébreu, de grec et de latin[1] à l'Université de Fribourg, puis à l'Université de Marbourg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Johann Lonitzer (1499-1569), humaniste luthérien, docteur en théologie, professeur d'hébreu, de grec et de latin à l'Université de Fribourg, puis à l'Université de Marbourg.
 Adam Lonitzer nait à Marbourg en 1528. Il est reçu Maître-ès-Arts Magister artium en 1545, à l'âge de seize ans. Il commence des études de médecine à l'Université de Mayence, puis revient à Marbourg pour les terminer, en enseignant aussi les mathématiques en 1553. Il devient Docteur en Médecine en 1554.  
-L'Université de Mayence, qui avait très tôt reconnu ses talents, lui propose une Chaire de Médecine. Alors qu'il se rendait à Mayence en passant par Francfort-sur-le-Main , les magistrats de cette ville l'arrêtent pour le convaincre, par une offre plus généreuse, de devenir médecin de la ville[2]. 
+L'Université de Mayence, qui avait très tôt reconnu ses talents, lui propose une Chaire de Médecine. Alors qu'il se rendait à Mayence en passant par Francfort-sur-le-Main , les magistrats de cette ville l'arrêtent pour le convaincre, par une offre plus généreuse, de devenir médecin de la ville. 
 Il remplit cette charge avec honneur pendant 32 ans, jusqu'à sa mort en 1586.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonitzer est principalement connu pour son livre Kreuterbuch, un ouvrage illustré portant surtout sur les plantes, mais aussi sur des animaux, oiseaux, poissons et minéraux. Il ne s’agit pas véritablement d’une œuvre originale.
 Lonitzer était marié à Magdalena, la fille de Christian Egenolff, imprimeur et éditeur prospère de Francfort. Ce dernier avait recueilli plusieurs ouvrages :  en 1533, il avait publié une combinaison de Der Gart et de Destillierbuch de Hieronymus Brunschwig (1450-v. 1512). Le texte est signé Eucharius Rösslin (v. 1470-1526), médecin de la ville de Francfort. À la mort de ce dernier, son herbier est réédité sous le titre de Botanicon par Theodor Dorsten, sans doute pour faire croire à un nouvel ouvrage. 
